--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA622634-545D-4C47-9E13-E48FBA7CB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC24C05F-975C-CA4D-AF52-8E6C24421952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Surname</t>
   </si>
@@ -75,13 +75,100 @@
   </si>
   <si>
     <t>AS_3</t>
+  </si>
+  <si>
+    <t>Chavhunduka</t>
+  </si>
+  <si>
+    <t>H250766M</t>
+  </si>
+  <si>
+    <t>IBA</t>
+  </si>
+  <si>
+    <t>Chigumbu</t>
+  </si>
+  <si>
+    <t>H240757B</t>
+  </si>
+  <si>
+    <t>Chinembiri</t>
+  </si>
+  <si>
+    <t>H250858</t>
+  </si>
+  <si>
+    <t>GWAZA</t>
+  </si>
+  <si>
+    <t>H250777B</t>
+  </si>
+  <si>
+    <t>Mabhena</t>
+  </si>
+  <si>
+    <t>H250823Y</t>
+  </si>
+  <si>
+    <t>Makoni</t>
+  </si>
+  <si>
+    <t>H250755H</t>
+  </si>
+  <si>
+    <t>Masiyazi-Ngorima</t>
+  </si>
+  <si>
+    <t>H250767W</t>
+  </si>
+  <si>
+    <t>Mataruse</t>
+  </si>
+  <si>
+    <t>H240691V</t>
+  </si>
+  <si>
+    <t>Musara</t>
+  </si>
+  <si>
+    <t>H250822C</t>
+  </si>
+  <si>
+    <t>Muyambiri</t>
+  </si>
+  <si>
+    <t>H250742V</t>
+  </si>
+  <si>
+    <t>Ngoya</t>
+  </si>
+  <si>
+    <t>H250832R</t>
+  </si>
+  <si>
+    <t>NJOKOYA</t>
+  </si>
+  <si>
+    <t>H250815W</t>
+  </si>
+  <si>
+    <t>NYATHI</t>
+  </si>
+  <si>
+    <t>H250827A</t>
+  </si>
+  <si>
+    <t>Tamai</t>
+  </si>
+  <si>
+    <t>H250884T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -114,6 +201,11 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Times"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,13 +227,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,12 +619,12 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M227"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,907 +665,1047 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="2"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="2"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="2"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="2"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="2"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="2"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="2"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="2"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="2"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" s="2"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" s="3"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="2"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="2"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" s="2"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" s="2"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" s="3"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" s="2"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" s="2"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="B34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="B35" s="2"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="B36" s="2"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4">
       <c r="B37" s="2"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="B38" s="2"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="B39" s="2"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="B40" s="2"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41" s="2"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="B42" s="3"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4">
       <c r="B43" s="3"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="B44" s="3"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4">
       <c r="B45" s="2"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4">
       <c r="B46" s="3"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4">
       <c r="B47" s="2"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4">
       <c r="B48" s="2"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49" s="2"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" s="2"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" s="2"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" s="2"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53" s="2"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" s="2"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="B55" s="2"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" s="2"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="B57" s="3"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" s="2"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" s="2"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4">
       <c r="B60" s="3"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4">
       <c r="B61" s="2"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="B62" s="2"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4">
       <c r="B63" s="2"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4">
       <c r="B64" s="2"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" s="2"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" s="4"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" s="2"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68" s="2"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" s="3"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="B70" s="2"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71" s="2"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" s="2"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" s="2"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="B74" s="2"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="B75" s="4"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" s="2"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4">
       <c r="B77" s="2"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="B78" s="2"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" s="2"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4">
       <c r="B80" s="3"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" s="2"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" s="3"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" s="2"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" s="2"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" s="2"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="B86" s="2"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="B87" s="2"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="B88" s="2"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4">
       <c r="B89" s="2"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4">
       <c r="B90" s="2"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="B91" s="2"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="B92" s="2"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="B93" s="2"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="B94" s="3"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="B95" s="2"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="B96" s="3"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4">
       <c r="B97" s="3"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4">
       <c r="B98" s="2"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4">
       <c r="B99" s="2"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4">
       <c r="B100" s="2"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4">
       <c r="B101" s="2"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4">
       <c r="B102" s="2"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4">
       <c r="B103" s="2"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4">
       <c r="B104" s="2"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4">
       <c r="B105" s="3"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4">
       <c r="B106" s="2"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4">
       <c r="B107" s="2"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4">
       <c r="B108" s="2"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4">
       <c r="B109" s="2"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4">
       <c r="B110" s="2"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4">
       <c r="B111" s="2"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4">
       <c r="B113" s="2"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4">
       <c r="B114" s="2"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4">
       <c r="B115" s="2"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4">
       <c r="B117" s="2"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4">
       <c r="B118" s="2"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4">
       <c r="B120" s="2"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4">
       <c r="B122" s="3"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4">
       <c r="B123" s="2"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4">
       <c r="B124" s="2"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4">
       <c r="B125" s="2"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4">
       <c r="B126" s="2"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4">
       <c r="B127" s="2"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4">
       <c r="B128" s="2"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4">
       <c r="B129" s="2"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4">
       <c r="B130" s="2"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4">
       <c r="B131" s="2"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4">
       <c r="B132" s="2"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4">
       <c r="B133" s="2"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4">
       <c r="B134" s="2"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4">
       <c r="B135" s="2"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4">
       <c r="B136" s="2"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4">
       <c r="B137" s="2"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4">
       <c r="B138" s="2"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4">
       <c r="B139" s="2"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4">
       <c r="B140" s="2"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4">
       <c r="B141" s="2"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4">
       <c r="B142" s="2"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4">
       <c r="B143" s="2"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4">
       <c r="B144" s="2"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4">
       <c r="B145" s="2"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4">
       <c r="B146" s="2"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4">
       <c r="B147" s="2"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4">
       <c r="B148" s="2"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4">
       <c r="B149" s="2"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4">
       <c r="B150" s="2"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4">
       <c r="B151" s="2"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4">
       <c r="B152" s="3"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4">
       <c r="B153" s="2"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4">
       <c r="B154" s="3"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4">
       <c r="B155" s="2"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4">
       <c r="B156" s="3"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4">
       <c r="B157" s="2"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4">
       <c r="B158" s="2"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4">
       <c r="B159" s="3"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4">
       <c r="B160" s="2"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4">
       <c r="B161" s="3"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4">
       <c r="B162" s="2"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4">
       <c r="B163" s="2"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4">
       <c r="B164" s="2"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4">
       <c r="B165" s="2"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4">
       <c r="B166" s="3"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4">
       <c r="B167" s="2"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4">
       <c r="B168" s="2"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4">
       <c r="B169" s="2"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4">
       <c r="B170" s="2"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4">
       <c r="B171" s="2"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4">
       <c r="B172" s="2"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4">
       <c r="B173" s="2"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4">
       <c r="B174" s="4"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4">
       <c r="B175" s="2"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4">
       <c r="B176" s="3"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4">
       <c r="B177" s="2"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4">
       <c r="B178" s="2"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4">
       <c r="B179" s="2"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4">
       <c r="B180" s="2"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4">
       <c r="B181" s="2"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4">
       <c r="B182" s="2"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4">
       <c r="B183" s="2"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4">
       <c r="B184" s="2"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4">
       <c r="B185" s="2"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4">
       <c r="B186" s="2"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4">
       <c r="B187" s="4"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4">
       <c r="B188" s="2"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4">
       <c r="B189" s="2"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4">
       <c r="B190" s="2"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4">
       <c r="B191" s="2"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4">
       <c r="B192" s="2"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4">
       <c r="B193" s="2"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4">
       <c r="B194" s="2"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4">
       <c r="B195" s="2"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4">
       <c r="B196" s="3"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4">
       <c r="B197" s="2"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4">
       <c r="B198" s="2"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4">
       <c r="B199" s="2"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4">
       <c r="B200" s="2"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4">
       <c r="B201" s="2"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4">
       <c r="B202" s="2"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4">
       <c r="B203" s="2"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4">
       <c r="B204" s="2"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4">
       <c r="B205" s="2"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4">
       <c r="B206" s="2"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4">
       <c r="B207" s="2"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4">
       <c r="B208" s="2"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4">
       <c r="B209" s="2"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4">
       <c r="B210" s="2"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4">
       <c r="B211" s="2"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4">
       <c r="B212" s="2"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4">
       <c r="B213" s="3"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4">
       <c r="B214" s="2"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4">
       <c r="B215" s="2"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4">
       <c r="B216" s="2"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4">
       <c r="B217" s="2"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4">
       <c r="B218" s="2"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4">
       <c r="B219" s="2"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4">
       <c r="B220" s="2"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4">
       <c r="B221" s="3"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4">
       <c r="B222" s="2"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4">
       <c r="B223" s="2"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4">
       <c r="B224" s="2"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:4">
       <c r="B225" s="2"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:4">
       <c r="B226" s="3"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4">
       <c r="B227" s="3"/>
       <c r="D227" s="5"/>
     </row>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC24C05F-975C-CA4D-AF52-8E6C24421952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8F649-7463-C547-A883-12A80EBDBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Surname</t>
   </si>
@@ -162,6 +162,24 @@
   </si>
   <si>
     <t>H250884T</t>
+  </si>
+  <si>
+    <t>Marufu</t>
+  </si>
+  <si>
+    <t>H250846J</t>
+  </si>
+  <si>
+    <t>Mupure</t>
+  </si>
+  <si>
+    <t>H250837E</t>
+  </si>
+  <si>
+    <t>Chirata</t>
+  </si>
+  <si>
+    <t>H250854R</t>
   </si>
 </sst>
 </file>
@@ -278,7 +296,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M227" totalsRowShown="0">
   <autoFilter ref="A1:M227" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M227">
-    <sortCondition ref="C1:C227"/>
+    <sortCondition ref="A1:A227"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -619,7 +637,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -709,223 +727,253 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="6">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="6">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="6">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
         <v>0.87</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="2"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4">
       <c r="B19" s="2"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4">
       <c r="B20" s="2"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4">
       <c r="B21" s="2"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4">
       <c r="B22" s="2"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
       <c r="B23" s="2"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4">
       <c r="B24" s="2"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4">
       <c r="B25" s="2"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4">
       <c r="B26" s="3"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
       <c r="B27" s="2"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4">
       <c r="B28" s="2"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4">
       <c r="B29" s="2"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="1:4">
       <c r="B30" s="2"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="1:4">
       <c r="B31" s="3"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4">
       <c r="B32" s="2"/>
       <c r="D32" s="5"/>
     </row>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8F649-7463-C547-A883-12A80EBDBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0417FD9-494D-0749-9A45-1B5725D91060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>Chinembiri</t>
   </si>
   <si>
-    <t>H250858</t>
-  </si>
-  <si>
     <t>GWAZA</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>H250854R</t>
+  </si>
+  <si>
+    <t>H250858H</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -716,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>15</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>15</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -895,10 +895,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0417FD9-494D-0749-9A45-1B5725D91060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D491A4AA-6247-7042-9201-1A38957CAD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Surname</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>H250858H</t>
+  </si>
+  <si>
+    <t>Tsiko</t>
+  </si>
+  <si>
+    <t>H250754N</t>
+  </si>
+  <si>
+    <t>Chirambira</t>
+  </si>
+  <si>
+    <t>H250882E</t>
+  </si>
+  <si>
+    <t>Mujokeri</t>
+  </si>
+  <si>
+    <t>H240595Y</t>
   </si>
 </sst>
 </file>
@@ -637,7 +655,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -696,6 +714,9 @@
       <c r="D2" s="6">
         <v>0.67</v>
       </c>
+      <c r="J2">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
@@ -710,6 +731,9 @@
       <c r="D3" s="6">
         <v>0.71</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
@@ -724,256 +748,340 @@
       <c r="D4" s="6">
         <v>0.81</v>
       </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.77</v>
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>0.59</v>
+        <v>0.77</v>
+      </c>
+      <c r="J6">
+        <v>0.11</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6">
-        <v>0.7</v>
+        <v>0.59</v>
+      </c>
+      <c r="J7">
+        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="6">
-        <v>0.68</v>
+        <v>0.7</v>
+      </c>
+      <c r="J8">
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6">
-        <v>0.76</v>
+        <v>0.68</v>
+      </c>
+      <c r="J9">
+        <v>0.91</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6">
-        <v>0.87</v>
+        <v>0.76</v>
+      </c>
+      <c r="J10">
+        <v>0.51</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6">
-        <v>0.84</v>
+        <v>0.87</v>
+      </c>
+      <c r="J11">
+        <v>0.89</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="J12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.91</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>0.9</v>
+        <v>0.73</v>
+      </c>
+      <c r="J14">
+        <v>0.91</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>0.89</v>
+        <v>0.91</v>
+      </c>
+      <c r="J15">
+        <v>0.76</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="J17">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="J18">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="J19">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="2"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="2"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="2"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="J20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="B22" s="2"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:10">
       <c r="B23" s="2"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:10">
       <c r="B24" s="2"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:10">
       <c r="B25" s="2"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="B26" s="3"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:10">
       <c r="B27" s="2"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:10">
       <c r="B28" s="2"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:10">
       <c r="B29" s="2"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:10">
       <c r="B30" s="2"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:10">
       <c r="B31" s="3"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:10">
       <c r="B32" s="2"/>
       <c r="D32" s="5"/>
     </row>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D491A4AA-6247-7042-9201-1A38957CAD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32033321-DAFB-CE4B-B917-8C5B2BE06C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32033321-DAFB-CE4B-B917-8C5B2BE06C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70552198-C993-C24F-AD52-8AD7D122B2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -714,6 +714,9 @@
       <c r="D2" s="6">
         <v>0.67</v>
       </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
       <c r="J2">
         <v>0.84</v>
       </c>
@@ -731,6 +734,9 @@
       <c r="D3" s="6">
         <v>0.71</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -748,6 +754,9 @@
       <c r="D4" s="6">
         <v>0.81</v>
       </c>
+      <c r="G4">
+        <v>0.05</v>
+      </c>
       <c r="J4">
         <v>0.4</v>
       </c>
@@ -765,6 +774,9 @@
       <c r="D5" s="5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -782,6 +794,9 @@
       <c r="D6" s="6">
         <v>0.77</v>
       </c>
+      <c r="G6">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="J6">
         <v>0.11</v>
       </c>
@@ -799,6 +814,9 @@
       <c r="D7" s="6">
         <v>0.59</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>0.89</v>
       </c>
@@ -816,6 +834,9 @@
       <c r="D8" s="6">
         <v>0.7</v>
       </c>
+      <c r="G8">
+        <v>0.16</v>
+      </c>
       <c r="J8">
         <v>0.78</v>
       </c>
@@ -833,6 +854,9 @@
       <c r="D9" s="6">
         <v>0.68</v>
       </c>
+      <c r="G9">
+        <v>0.38</v>
+      </c>
       <c r="J9">
         <v>0.91</v>
       </c>
@@ -850,6 +874,9 @@
       <c r="D10" s="6">
         <v>0.76</v>
       </c>
+      <c r="G10">
+        <v>0.25</v>
+      </c>
       <c r="J10">
         <v>0.51</v>
       </c>
@@ -867,6 +894,9 @@
       <c r="D11" s="6">
         <v>0.87</v>
       </c>
+      <c r="G11">
+        <v>0.82</v>
+      </c>
       <c r="J11">
         <v>0.89</v>
       </c>
@@ -884,6 +914,9 @@
       <c r="D12" s="6">
         <v>0.84</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>0.4</v>
       </c>
@@ -901,6 +934,9 @@
       <c r="D13" s="5">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>0.73</v>
       </c>
@@ -918,6 +954,9 @@
       <c r="D14" s="6">
         <v>0.73</v>
       </c>
+      <c r="G14">
+        <v>0.71</v>
+      </c>
       <c r="J14">
         <v>0.91</v>
       </c>
@@ -935,6 +974,9 @@
       <c r="D15" s="6">
         <v>0.91</v>
       </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
       <c r="J15">
         <v>0.76</v>
       </c>
@@ -952,6 +994,9 @@
       <c r="D16" s="6">
         <v>0.9</v>
       </c>
+      <c r="G16">
+        <v>0.45</v>
+      </c>
       <c r="J16">
         <v>0.82</v>
       </c>
@@ -969,6 +1014,9 @@
       <c r="D17" s="6">
         <v>0.89</v>
       </c>
+      <c r="G17">
+        <v>0.22</v>
+      </c>
       <c r="J17">
         <v>0.89</v>
       </c>
@@ -986,6 +1034,9 @@
       <c r="D18" s="6">
         <v>0.62</v>
       </c>
+      <c r="G18">
+        <v>0.51</v>
+      </c>
       <c r="J18">
         <v>0.62</v>
       </c>
@@ -1003,6 +1054,9 @@
       <c r="D19" s="6">
         <v>0.84</v>
       </c>
+      <c r="G19">
+        <v>0.36</v>
+      </c>
       <c r="J19">
         <v>0.84</v>
       </c>
@@ -1020,6 +1074,9 @@
       <c r="D20" s="6">
         <v>0.87</v>
       </c>
+      <c r="G20">
+        <v>0.09</v>
+      </c>
       <c r="J20">
         <v>0.42</v>
       </c>
@@ -1036,6 +1093,9 @@
       </c>
       <c r="D21" s="5">
         <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.22</v>
       </c>
       <c r="J21">
         <v>0.44</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70552198-C993-C24F-AD52-8AD7D122B2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729FD533-9149-C44C-A066-745F4CF3FBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Surname</t>
   </si>
@@ -198,13 +198,70 @@
   </si>
   <si>
     <t>H240595Y</t>
+  </si>
+  <si>
+    <t>Charumbuka</t>
+  </si>
+  <si>
+    <t>H250871F</t>
+  </si>
+  <si>
+    <t>ICC</t>
+  </si>
+  <si>
+    <t>Chiparausha</t>
+  </si>
+  <si>
+    <t>H250757Z</t>
+  </si>
+  <si>
+    <t>CHIPIRO</t>
+  </si>
+  <si>
+    <t>H250873W</t>
+  </si>
+  <si>
+    <t>Farley</t>
+  </si>
+  <si>
+    <t>H20759F</t>
+  </si>
+  <si>
+    <t>Kamondo</t>
+  </si>
+  <si>
+    <t>H250870V</t>
+  </si>
+  <si>
+    <t>Nyaruviro</t>
+  </si>
+  <si>
+    <t>H250780X</t>
+  </si>
+  <si>
+    <t>Nyazema</t>
+  </si>
+  <si>
+    <t>H250803T</t>
+  </si>
+  <si>
+    <t>Sagwata</t>
+  </si>
+  <si>
+    <t>H250764C</t>
+  </si>
+  <si>
+    <t>Shambare</t>
+  </si>
+  <si>
+    <t>H250880M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -242,6 +299,16 @@
       <color rgb="FF333333"/>
       <name val="Times"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,6 +338,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +724,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A2" sqref="A2:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1102,40 +1171,184 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="2"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="G22">
+        <v>0.16</v>
+      </c>
+      <c r="J22">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G23">
+        <v>0.24</v>
+      </c>
+      <c r="J23">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="2"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G24">
+        <v>0.15</v>
+      </c>
+      <c r="J24">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="G25">
+        <v>0.15</v>
+      </c>
+      <c r="J25">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="3"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="G26">
+        <v>0.13</v>
+      </c>
+      <c r="J26">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="2"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G27">
+        <v>0.16</v>
+      </c>
+      <c r="J27">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <v>0.13</v>
+      </c>
+      <c r="J28">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="2"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G29">
+        <v>0.15</v>
+      </c>
+      <c r="J29">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="2"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="G30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J30">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="3"/>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729FD533-9149-C44C-A066-745F4CF3FBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67405A07-1AD0-764E-8472-C118D3522788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>Surname</t>
   </si>
@@ -255,6 +255,39 @@
   </si>
   <si>
     <t>H250880M</t>
+  </si>
+  <si>
+    <t>Mapuranga</t>
+  </si>
+  <si>
+    <t>H250848N</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>Muza</t>
+  </si>
+  <si>
+    <t>H250849X</t>
+  </si>
+  <si>
+    <t>Chikoko</t>
+  </si>
+  <si>
+    <t>H250843J</t>
+  </si>
+  <si>
+    <t>Mashonganyika</t>
+  </si>
+  <si>
+    <t>H250758Q</t>
+  </si>
+  <si>
+    <t>Chikuni</t>
+  </si>
+  <si>
+    <t>H23001f</t>
   </si>
 </sst>
 </file>
@@ -383,7 +416,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M227" totalsRowShown="0">
   <autoFilter ref="A1:M227" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M227">
-    <sortCondition ref="A1:A227"/>
+    <sortCondition ref="C1:C227"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -724,7 +757,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J21"/>
+      <selection activeCell="A2" sqref="A2:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -771,260 +804,235 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="G2">
-        <v>0.25</v>
-      </c>
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="J2">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="J3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="G4">
-        <v>0.05</v>
-      </c>
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="J5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="G6">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="J6">
-        <v>0.11</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J7">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="6">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="G8">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="G9">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="J9">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.76</v>
+      <c r="D10" s="5">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="J10">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="G11">
-        <v>0.82</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J11">
-        <v>0.89</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>0.84</v>
+        <v>0.59</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
+      <c r="D13" s="6">
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J13">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="G14">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="J14">
         <v>0.91</v>
@@ -1032,393 +1040,473 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="G15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J15">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="6">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G16">
-        <v>0.45</v>
+        <v>0.82</v>
       </c>
       <c r="J16">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="G17">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.62</v>
+      <c r="D18" s="5">
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="6">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="G19">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="J19">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G20">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="J20">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5">
-        <v>0</v>
+      <c r="D21" s="6">
+        <v>0.9</v>
       </c>
       <c r="G21">
+        <v>0.45</v>
+      </c>
+      <c r="J21">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G22">
         <v>0.22</v>
       </c>
-      <c r="J21">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="G22">
-        <v>0.16</v>
-      </c>
       <c r="J22">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.7</v>
+      <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.62</v>
       </c>
       <c r="G23">
-        <v>0.24</v>
+        <v>0.51</v>
       </c>
       <c r="J23">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.75</v>
-      </c>
       <c r="G24">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="J24">
         <v>0.84</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.89</v>
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.87</v>
       </c>
       <c r="G25">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J25">
-        <v>0.89</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>64</v>
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0.63</v>
+        <v>15</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="J26">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="8">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="G27">
         <v>0.16</v>
       </c>
       <c r="J27">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G28">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="J28">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="8">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="G29">
         <v>0.15</v>
       </c>
       <c r="J29">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="G30">
+        <v>0.15</v>
+      </c>
+      <c r="J30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="G31">
+        <v>0.13</v>
+      </c>
+      <c r="J31">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G32">
+        <v>0.16</v>
+      </c>
+      <c r="J32">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G33">
+        <v>0.13</v>
+      </c>
+      <c r="J33">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G34">
+        <v>0.15</v>
+      </c>
+      <c r="J34">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="8">
         <v>0.53</v>
       </c>
-      <c r="G30">
+      <c r="G35">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J30">
+      <c r="J35">
         <v>0.62</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="B31" s="3"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="2"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="4"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:10">
       <c r="B36" s="2"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:10">
       <c r="B37" s="2"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:10">
       <c r="B38" s="2"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:10">
       <c r="B39" s="2"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:10">
       <c r="B40" s="2"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:10">
       <c r="B41" s="2"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:10">
       <c r="B42" s="3"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:10">
       <c r="B43" s="3"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:10">
       <c r="B44" s="3"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:10">
       <c r="B45" s="2"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:10">
       <c r="B46" s="3"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:10">
       <c r="B47" s="2"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="1:10">
       <c r="B48" s="2"/>
       <c r="D48" s="5"/>
     </row>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67405A07-1AD0-764E-8472-C118D3522788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61982299-035A-4A46-A79A-C1F3A028655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61982299-035A-4A46-A79A-C1F3A028655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8D93C-5805-0745-B7A8-B9CD4F703FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="5860" yWindow="3800" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>Surname</t>
   </si>
@@ -288,6 +288,33 @@
   </si>
   <si>
     <t>H23001f</t>
+  </si>
+  <si>
+    <t>Gwaindepi</t>
+  </si>
+  <si>
+    <t>H250890</t>
+  </si>
+  <si>
+    <t>EMPD</t>
+  </si>
+  <si>
+    <t>Nhete</t>
+  </si>
+  <si>
+    <t>H250753T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nzondo </t>
+  </si>
+  <si>
+    <t>H25088E</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>H250889F</t>
   </si>
 </sst>
 </file>
@@ -757,7 +784,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M35"/>
+      <selection activeCell="A2" sqref="A2:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -879,200 +906,180 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="G7">
-        <v>0.25</v>
-      </c>
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="J7">
         <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="J8">
-        <v>0</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="G9">
-        <v>0.05</v>
-      </c>
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="J9">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="J10">
-        <v>0</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="G11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.25</v>
       </c>
       <c r="J11">
-        <v>0.11</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="6">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
       <c r="G13">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="J13">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.68</v>
+      <c r="D14" s="5">
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="J14">
-        <v>0.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="G15">
-        <v>0.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J15">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="6">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="G16">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0.89</v>
@@ -1080,399 +1087,463 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
+      <c r="D18" s="6">
+        <v>0.68</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="J18">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="6">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="G19">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="J19">
-        <v>0.91</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="G20">
-        <v>0.2</v>
+        <v>0.82</v>
       </c>
       <c r="J20">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="6">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="G21">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.82</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="6">
-        <v>0.89</v>
+      <c r="D22" s="5">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="G23">
-        <v>0.51</v>
+        <v>0.71</v>
       </c>
       <c r="J23">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="G24">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="J24">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="6">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="G25">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="J25">
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
+      <c r="D26" s="6">
+        <v>0.89</v>
       </c>
       <c r="G26">
         <v>0.22</v>
       </c>
       <c r="J26">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.76</v>
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.62</v>
       </c>
       <c r="G27">
-        <v>0.16</v>
+        <v>0.51</v>
       </c>
       <c r="J27">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0.7</v>
+      <c r="A28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.84</v>
       </c>
       <c r="G28">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="J28">
         <v>0.84</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.75</v>
+      <c r="A29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.87</v>
       </c>
       <c r="G29">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J29">
-        <v>0.84</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>62</v>
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.89</v>
+        <v>15</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="J30">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="8">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="G31">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="J31">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="G32">
-        <v>0.16</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J32">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G33">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J33">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="8">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="G34">
         <v>0.15</v>
       </c>
       <c r="J34">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="G35">
+        <v>0.13</v>
+      </c>
+      <c r="J35">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G36">
+        <v>0.16</v>
+      </c>
+      <c r="J36">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G37">
+        <v>0.13</v>
+      </c>
+      <c r="J37">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G38">
+        <v>0.15</v>
+      </c>
+      <c r="J38">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="8">
         <v>0.53</v>
       </c>
-      <c r="G35">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J35">
+      <c r="G39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J39">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36" s="2"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="2"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="2"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="2"/>
-      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="2"/>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8D93C-5805-0745-B7A8-B9CD4F703FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF574A-FD0A-7B47-8B7C-50D462BFADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5860" yWindow="3800" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -915,7 +915,9 @@
       <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>0.81</v>
+      </c>
       <c r="J7">
         <v>0.84</v>
       </c>
@@ -930,7 +932,9 @@
       <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>0.78</v>
+      </c>
       <c r="J8">
         <v>0.87</v>
       </c>
@@ -945,7 +949,9 @@
       <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>0.87</v>
       </c>
@@ -960,7 +966,9 @@
       <c r="C10" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>0.77</v>
+      </c>
       <c r="J10">
         <v>0.89</v>
       </c>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF574A-FD0A-7B47-8B7C-50D462BFADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A7C26-87C6-804A-A8D0-EBF855F62A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="3800" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="4960" yWindow="2700" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>Surname</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>H250889F</t>
+  </si>
+  <si>
+    <t>Ndebele</t>
+  </si>
+  <si>
+    <t>H250828V</t>
+  </si>
+  <si>
+    <t>Ziyera</t>
+  </si>
+  <si>
+    <t>H250886W</t>
   </si>
 </sst>
 </file>
@@ -783,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -840,7 +852,9 @@
       <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>0.8</v>
+      </c>
       <c r="J2">
         <v>0.96</v>
       </c>
@@ -855,7 +869,9 @@
       <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>0.77</v>
+      </c>
       <c r="J3">
         <v>0.7</v>
       </c>
@@ -870,7 +886,9 @@
       <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>0.89</v>
+      </c>
       <c r="J4">
         <v>0.79</v>
       </c>
@@ -885,7 +903,9 @@
       <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>0.71</v>
+      </c>
       <c r="J5">
         <v>0.7</v>
       </c>
@@ -900,154 +920,150 @@
       <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>0.76</v>
+      </c>
       <c r="J6">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
       <c r="J7">
-        <v>0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="J8">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="J9">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="J10">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.77</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>0.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="G11">
-        <v>0.25</v>
-      </c>
-      <c r="J11">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="6">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
       <c r="G13">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="G14">
         <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.4</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1055,456 +1071,456 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="G15">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.59</v>
+      <c r="D16" s="5">
+        <v>0</v>
       </c>
       <c r="G16">
+        <v>0.4</v>
+      </c>
+      <c r="J16">
         <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="G17">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J17">
-        <v>0.78</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="6">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="G18">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="6">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="G19">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="J19">
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="G20">
-        <v>0.82</v>
+        <v>0.38</v>
       </c>
       <c r="J20">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="6">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J21">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
+      <c r="D22" s="6">
+        <v>0.87</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="J22">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>0.73</v>
-      </c>
-      <c r="G23">
-        <v>0.71</v>
-      </c>
-      <c r="J23">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="G24">
-        <v>0.2</v>
-      </c>
-      <c r="J24">
-        <v>0.76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="6">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="G25">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
       <c r="J25">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="6">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G26">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="J26">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="G27">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="J27">
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="6">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="G28">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="J28">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="G29">
+        <v>0.51</v>
+      </c>
+      <c r="J29">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="G30">
+        <v>0.36</v>
+      </c>
+      <c r="J30">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6">
         <v>0.87</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.09</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.42</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D32" s="5">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>0.22</v>
       </c>
-      <c r="J30">
+      <c r="J32">
         <v>0.44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="G31">
-        <v>0.16</v>
-      </c>
-      <c r="J31">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G32">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J32">
-        <v>0.84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="G33">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J33">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="8">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="G34">
-        <v>0.15</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J34">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="8">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="G35">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J35">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="8">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="G36">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J36">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="8">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="G37">
         <v>0.13</v>
@@ -1515,10 +1531,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -1527,39 +1543,71 @@
         <v>0.78</v>
       </c>
       <c r="G38">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J38">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G39">
+        <v>0.13</v>
+      </c>
+      <c r="J39">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G40">
+        <v>0.15</v>
+      </c>
+      <c r="J40">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="8">
         <v>0.53</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="2"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="2"/>
-      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="3"/>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A7C26-87C6-804A-A8D0-EBF855F62A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FC151-A67D-0745-8809-4D2854B04523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="2700" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="1980" yWindow="2700" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>Surname</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>H250886W</t>
+  </si>
+  <si>
+    <t>Manwa</t>
+  </si>
+  <si>
+    <t>H250887P</t>
   </si>
 </sst>
 </file>
@@ -795,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1042,6 +1048,9 @@
       <c r="D13" s="6">
         <v>0.67</v>
       </c>
+      <c r="E13">
+        <v>0.96</v>
+      </c>
       <c r="G13">
         <v>0.25</v>
       </c>
@@ -1062,6 +1071,9 @@
       <c r="D14" s="6">
         <v>0.71</v>
       </c>
+      <c r="E14">
+        <v>0.85</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -1082,6 +1094,9 @@
       <c r="D15" s="6">
         <v>0.81</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="G15">
         <v>0.05</v>
       </c>
@@ -1102,6 +1117,9 @@
       <c r="D16" s="5">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="G16">
         <v>0.4</v>
       </c>
@@ -1122,6 +1140,9 @@
       <c r="D17" s="6">
         <v>0.77</v>
       </c>
+      <c r="E17">
+        <v>0.91</v>
+      </c>
       <c r="G17">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1142,6 +1163,9 @@
       <c r="D18" s="6">
         <v>0.59</v>
       </c>
+      <c r="E18">
+        <v>0.85</v>
+      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -1162,6 +1186,9 @@
       <c r="D19" s="6">
         <v>0.7</v>
       </c>
+      <c r="E19">
+        <v>0.91</v>
+      </c>
       <c r="G19">
         <v>0.16</v>
       </c>
@@ -1182,6 +1209,9 @@
       <c r="D20" s="6">
         <v>0.68</v>
       </c>
+      <c r="E20">
+        <v>0.96</v>
+      </c>
       <c r="G20">
         <v>0.38</v>
       </c>
@@ -1190,300 +1220,339 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
-        <v>0.76</v>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.75</v>
       </c>
       <c r="G21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="6">
-        <v>0.87</v>
+        <v>0.76</v>
+      </c>
+      <c r="E22">
+        <v>0.89</v>
       </c>
       <c r="G22">
-        <v>0.82</v>
+        <v>0.25</v>
       </c>
       <c r="J22">
-        <v>0.89</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E23">
+        <v>0.96</v>
+      </c>
+      <c r="G23">
+        <v>0.82</v>
+      </c>
+      <c r="J23">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6">
         <v>0.84</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
+      <c r="E24">
+        <v>0.85</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="J24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>0.73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="G25">
-        <v>0.71</v>
-      </c>
-      <c r="J25">
-        <v>0.91</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="E26">
+        <v>0.96</v>
+      </c>
+      <c r="G26">
+        <v>0.71</v>
+      </c>
+      <c r="J26">
         <v>0.91</v>
-      </c>
-      <c r="G26">
-        <v>0.2</v>
-      </c>
-      <c r="J26">
-        <v>0.76</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6">
-        <v>0.9</v>
+        <v>0.91</v>
+      </c>
+      <c r="E27">
+        <v>0.85</v>
       </c>
       <c r="G27">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="J27">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="6">
-        <v>0.89</v>
+        <v>0.9</v>
+      </c>
+      <c r="E28">
+        <v>0.96</v>
       </c>
       <c r="G28">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="J28">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="6">
-        <v>0.62</v>
+        <v>0.89</v>
+      </c>
+      <c r="E29">
+        <v>0.96</v>
       </c>
       <c r="G29">
-        <v>0.51</v>
+        <v>0.22</v>
       </c>
       <c r="J29">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="6">
-        <v>0.84</v>
+        <v>0.62</v>
+      </c>
+      <c r="E30">
+        <v>0.72</v>
       </c>
       <c r="G30">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="J30">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="E31">
+        <v>0.92</v>
+      </c>
+      <c r="G31">
+        <v>0.36</v>
+      </c>
+      <c r="J31">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="6">
         <v>0.87</v>
       </c>
-      <c r="G31">
+      <c r="E32">
+        <v>0.89</v>
+      </c>
+      <c r="G32">
         <v>0.09</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="5">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="E33">
+        <v>0.87</v>
+      </c>
+      <c r="G33">
         <v>0.22</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>0.44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="G33">
-        <v>0.16</v>
-      </c>
-      <c r="J33">
-        <v>0.73</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="8">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="G34">
-        <v>0.28999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="J34">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="8">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G35">
-        <v>0.15</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J35">
         <v>0.84</v>
@@ -1491,99 +1560,99 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="8">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="G36">
         <v>0.15</v>
       </c>
       <c r="J36">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="8">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="G37">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J37">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="8">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="G38">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="J38">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="8">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="G39">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="J39">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="8">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="G40">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J40">
         <v>0.71</v>
@@ -1591,27 +1660,43 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G41">
+        <v>0.15</v>
+      </c>
+      <c r="J41">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="8">
         <v>0.53</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" s="3"/>
-      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="3"/>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FC151-A67D-0745-8809-4D2854B04523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42347DC4-C43D-5549-9E83-DC1C5A8BA3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2700" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="1880" yWindow="760" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,9 +293,6 @@
     <t>Gwaindepi</t>
   </si>
   <si>
-    <t>H250890</t>
-  </si>
-  <si>
     <t>EMPD</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>H250887P</t>
+  </si>
+  <si>
+    <t>H250890W</t>
   </si>
 </sst>
 </file>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:M42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -935,10 +935,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -952,10 +952,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -972,64 +972,76 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
         <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
       </c>
       <c r="D9" s="5">
         <v>0.81</v>
       </c>
+      <c r="G9">
+        <v>0.75</v>
+      </c>
       <c r="J9">
         <v>0.84</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="5">
         <v>0.78</v>
       </c>
+      <c r="G10">
+        <v>0.73</v>
+      </c>
       <c r="J10">
         <v>0.87</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>0.78</v>
+      </c>
       <c r="J11">
         <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5">
         <v>0.77</v>
+      </c>
+      <c r="G12">
+        <v>0.73</v>
       </c>
       <c r="J12">
         <v>0.89</v>
@@ -1221,10 +1233,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1531,6 +1543,9 @@
       <c r="D34" s="8">
         <v>0.76</v>
       </c>
+      <c r="E34">
+        <v>0.76</v>
+      </c>
       <c r="G34">
         <v>0.16</v>
       </c>
@@ -1551,6 +1566,9 @@
       <c r="D35" s="8">
         <v>0.7</v>
       </c>
+      <c r="E35">
+        <v>0.83</v>
+      </c>
       <c r="G35">
         <v>0.28999999999999998</v>
       </c>
@@ -1571,6 +1589,9 @@
       <c r="D36" s="8">
         <v>0.75</v>
       </c>
+      <c r="E36">
+        <v>0.89</v>
+      </c>
       <c r="G36">
         <v>0.15</v>
       </c>
@@ -1591,6 +1612,9 @@
       <c r="D37" s="8">
         <v>0.89</v>
       </c>
+      <c r="E37">
+        <v>0.83</v>
+      </c>
       <c r="G37">
         <v>0.15</v>
       </c>
@@ -1611,6 +1635,9 @@
       <c r="D38" s="8">
         <v>0.63</v>
       </c>
+      <c r="E38">
+        <v>0.85</v>
+      </c>
       <c r="G38">
         <v>0.13</v>
       </c>
@@ -1631,6 +1658,9 @@
       <c r="D39" s="8">
         <v>0.78</v>
       </c>
+      <c r="E39">
+        <v>0.83</v>
+      </c>
       <c r="G39">
         <v>0.16</v>
       </c>
@@ -1651,6 +1681,9 @@
       <c r="D40" s="8">
         <v>0.8</v>
       </c>
+      <c r="E40">
+        <v>0.67</v>
+      </c>
       <c r="G40">
         <v>0.13</v>
       </c>
@@ -1671,6 +1704,9 @@
       <c r="D41" s="8">
         <v>0.78</v>
       </c>
+      <c r="E41">
+        <v>0.78</v>
+      </c>
       <c r="G41">
         <v>0.15</v>
       </c>
@@ -1691,6 +1727,9 @@
       <c r="D42" s="8">
         <v>0.53</v>
       </c>
+      <c r="E42">
+        <v>0.8</v>
+      </c>
       <c r="G42">
         <v>0.57999999999999996</v>
       </c>
@@ -2440,6 +2479,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42347DC4-C43D-5549-9E83-DC1C5A8BA3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F8D193-91CD-C24C-86F3-72993EDAA645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="760" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -861,6 +861,12 @@
       <c r="D2" s="5">
         <v>0.8</v>
       </c>
+      <c r="E2">
+        <v>0.87</v>
+      </c>
+      <c r="G2">
+        <v>0.43</v>
+      </c>
       <c r="J2">
         <v>0.96</v>
       </c>
@@ -878,6 +884,12 @@
       <c r="D3" s="5">
         <v>0.77</v>
       </c>
+      <c r="E3">
+        <v>0.91</v>
+      </c>
+      <c r="G3">
+        <v>0.27</v>
+      </c>
       <c r="J3">
         <v>0.7</v>
       </c>
@@ -895,6 +907,12 @@
       <c r="D4" s="5">
         <v>0.89</v>
       </c>
+      <c r="E4">
+        <v>0.83</v>
+      </c>
+      <c r="G4">
+        <v>0.53</v>
+      </c>
       <c r="J4">
         <v>0.79</v>
       </c>
@@ -912,6 +930,12 @@
       <c r="D5" s="5">
         <v>0.71</v>
       </c>
+      <c r="E5">
+        <v>0.81</v>
+      </c>
+      <c r="G5">
+        <v>0.6</v>
+      </c>
       <c r="J5">
         <v>0.7</v>
       </c>
@@ -929,6 +953,12 @@
       <c r="D6" s="5">
         <v>0.76</v>
       </c>
+      <c r="E6">
+        <v>0.87</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>0.28000000000000003</v>
       </c>
@@ -946,6 +976,12 @@
       <c r="D7" s="5">
         <v>0.75</v>
       </c>
+      <c r="E7">
+        <v>0.76</v>
+      </c>
+      <c r="G7">
+        <v>0.25</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -963,6 +999,12 @@
       <c r="D8" s="5">
         <v>0.72</v>
       </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -980,6 +1022,9 @@
       <c r="D9" s="5">
         <v>0.81</v>
       </c>
+      <c r="E9">
+        <v>0.87</v>
+      </c>
       <c r="G9">
         <v>0.75</v>
       </c>
@@ -1000,6 +1045,9 @@
       <c r="D10" s="5">
         <v>0.78</v>
       </c>
+      <c r="E10">
+        <v>0.93</v>
+      </c>
       <c r="G10">
         <v>0.73</v>
       </c>
@@ -1020,6 +1068,9 @@
       <c r="D11" s="5">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>0.89</v>
+      </c>
       <c r="G11">
         <v>0.78</v>
       </c>
@@ -1040,6 +1091,9 @@
       <c r="D12" s="5">
         <v>0.77</v>
       </c>
+      <c r="E12">
+        <v>0.93</v>
+      </c>
       <c r="G12">
         <v>0.73</v>
       </c>
@@ -1066,6 +1120,9 @@
       <c r="G13">
         <v>0.25</v>
       </c>
+      <c r="H13">
+        <v>0.39</v>
+      </c>
       <c r="J13">
         <v>0.84</v>
       </c>
@@ -1089,6 +1146,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>0</v>
       </c>
@@ -1112,6 +1172,9 @@
       <c r="G15">
         <v>0.05</v>
       </c>
+      <c r="H15">
+        <v>0.46</v>
+      </c>
       <c r="J15">
         <v>0.4</v>
       </c>
@@ -1135,6 +1198,9 @@
       <c r="G16">
         <v>0.4</v>
       </c>
+      <c r="H16">
+        <v>0.72</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -1158,6 +1224,9 @@
       <c r="G17">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="H17">
+        <v>0.13</v>
+      </c>
       <c r="J17">
         <v>0.11</v>
       </c>
@@ -1181,6 +1250,9 @@
       <c r="G18">
         <v>0</v>
       </c>
+      <c r="H18">
+        <v>0.02</v>
+      </c>
       <c r="J18">
         <v>0.89</v>
       </c>
@@ -1204,6 +1276,9 @@
       <c r="G19">
         <v>0.16</v>
       </c>
+      <c r="H19">
+        <v>0.26</v>
+      </c>
       <c r="J19">
         <v>0.78</v>
       </c>
@@ -1227,6 +1302,9 @@
       <c r="G20">
         <v>0.38</v>
       </c>
+      <c r="H20">
+        <v>0.48</v>
+      </c>
       <c r="J20">
         <v>0.91</v>
       </c>
@@ -1250,6 +1328,9 @@
       <c r="G21">
         <v>0</v>
       </c>
+      <c r="H21">
+        <v>0.35</v>
+      </c>
       <c r="J21">
         <v>0</v>
       </c>
@@ -1273,6 +1354,9 @@
       <c r="G22">
         <v>0.25</v>
       </c>
+      <c r="H22">
+        <v>0.37</v>
+      </c>
       <c r="J22">
         <v>0.51</v>
       </c>
@@ -1296,6 +1380,9 @@
       <c r="G23">
         <v>0.82</v>
       </c>
+      <c r="H23">
+        <v>0.93</v>
+      </c>
       <c r="J23">
         <v>0.89</v>
       </c>
@@ -1319,6 +1406,9 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24">
+        <v>0.22</v>
+      </c>
       <c r="J24">
         <v>0.4</v>
       </c>
@@ -1342,6 +1432,9 @@
       <c r="G25">
         <v>0</v>
       </c>
+      <c r="H25">
+        <v>0.26</v>
+      </c>
       <c r="J25">
         <v>0.73</v>
       </c>
@@ -1365,6 +1458,9 @@
       <c r="G26">
         <v>0.71</v>
       </c>
+      <c r="H26">
+        <v>0.83</v>
+      </c>
       <c r="J26">
         <v>0.91</v>
       </c>
@@ -1388,6 +1484,9 @@
       <c r="G27">
         <v>0.2</v>
       </c>
+      <c r="H27">
+        <v>0.15</v>
+      </c>
       <c r="J27">
         <v>0.76</v>
       </c>
@@ -1411,6 +1510,9 @@
       <c r="G28">
         <v>0.45</v>
       </c>
+      <c r="H28">
+        <v>0.48</v>
+      </c>
       <c r="J28">
         <v>0.82</v>
       </c>
@@ -1434,6 +1536,9 @@
       <c r="G29">
         <v>0.22</v>
       </c>
+      <c r="H29">
+        <v>0.6</v>
+      </c>
       <c r="J29">
         <v>0.89</v>
       </c>
@@ -1457,6 +1562,9 @@
       <c r="G30">
         <v>0.51</v>
       </c>
+      <c r="H30">
+        <v>0.59</v>
+      </c>
       <c r="J30">
         <v>0.62</v>
       </c>
@@ -1480,6 +1588,9 @@
       <c r="G31">
         <v>0.36</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="J31">
         <v>0.84</v>
       </c>
@@ -1503,6 +1614,9 @@
       <c r="G32">
         <v>0.09</v>
       </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
       <c r="J32">
         <v>0.42</v>
       </c>
@@ -1525,6 +1639,9 @@
       </c>
       <c r="G33">
         <v>0.22</v>
+      </c>
+      <c r="H33">
+        <v>0.17</v>
       </c>
       <c r="J33">
         <v>0.44</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F8D193-91CD-C24C-86F3-72993EDAA645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36951263-0287-1A45-960E-9B9ABD2DC45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="760" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -802,7 +802,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H33"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1537,7 +1537,7 @@
         <v>0.22</v>
       </c>
       <c r="H29">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="J29">
         <v>0.89</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36951263-0287-1A45-960E-9B9ABD2DC45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77641F5-E457-5A4A-912A-3F1702BB228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="760" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -865,7 +865,10 @@
         <v>0.87</v>
       </c>
       <c r="G2">
-        <v>0.43</v>
+        <v>0.45</v>
+      </c>
+      <c r="H2">
+        <v>0.31</v>
       </c>
       <c r="J2">
         <v>0.96</v>
@@ -890,6 +893,9 @@
       <c r="G3">
         <v>0.27</v>
       </c>
+      <c r="H3">
+        <v>0.33</v>
+      </c>
       <c r="J3">
         <v>0.7</v>
       </c>
@@ -913,6 +919,9 @@
       <c r="G4">
         <v>0.53</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>0.79</v>
       </c>
@@ -936,6 +945,9 @@
       <c r="G5">
         <v>0.6</v>
       </c>
+      <c r="H5">
+        <v>0.38</v>
+      </c>
       <c r="J5">
         <v>0.7</v>
       </c>
@@ -959,6 +971,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0.33</v>
+      </c>
       <c r="J6">
         <v>0.28000000000000003</v>
       </c>
@@ -982,6 +997,9 @@
       <c r="G7">
         <v>0.25</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -1005,6 +1023,9 @@
       <c r="G8">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H8">
+        <v>0.21</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -1028,6 +1049,9 @@
       <c r="G9">
         <v>0.75</v>
       </c>
+      <c r="H9">
+        <v>0.87</v>
+      </c>
       <c r="J9">
         <v>0.84</v>
       </c>
@@ -1051,6 +1075,9 @@
       <c r="G10">
         <v>0.73</v>
       </c>
+      <c r="H10">
+        <v>0.9</v>
+      </c>
       <c r="J10">
         <v>0.87</v>
       </c>
@@ -1074,6 +1101,9 @@
       <c r="G11">
         <v>0.78</v>
       </c>
+      <c r="H11">
+        <v>0.87</v>
+      </c>
       <c r="J11">
         <v>0.87</v>
       </c>
@@ -1097,6 +1127,9 @@
       <c r="G12">
         <v>0.73</v>
       </c>
+      <c r="H12">
+        <v>0.87</v>
+      </c>
       <c r="J12">
         <v>0.89</v>
       </c>
@@ -1666,6 +1699,9 @@
       <c r="G34">
         <v>0.16</v>
       </c>
+      <c r="H34">
+        <v>0.7</v>
+      </c>
       <c r="J34">
         <v>0.73</v>
       </c>
@@ -1689,6 +1725,9 @@
       <c r="G35">
         <v>0.28999999999999998</v>
       </c>
+      <c r="H35">
+        <v>0.7</v>
+      </c>
       <c r="J35">
         <v>0.84</v>
       </c>
@@ -1712,6 +1751,9 @@
       <c r="G36">
         <v>0.15</v>
       </c>
+      <c r="H36">
+        <v>0.43</v>
+      </c>
       <c r="J36">
         <v>0.84</v>
       </c>
@@ -1735,6 +1777,9 @@
       <c r="G37">
         <v>0.15</v>
       </c>
+      <c r="H37">
+        <v>0.36</v>
+      </c>
       <c r="J37">
         <v>0.89</v>
       </c>
@@ -1758,6 +1803,9 @@
       <c r="G38">
         <v>0.13</v>
       </c>
+      <c r="H38">
+        <v>0.66</v>
+      </c>
       <c r="J38">
         <v>0.71</v>
       </c>
@@ -1781,6 +1829,9 @@
       <c r="G39">
         <v>0.16</v>
       </c>
+      <c r="H39">
+        <v>0.3</v>
+      </c>
       <c r="J39">
         <v>0.78</v>
       </c>
@@ -1804,6 +1855,9 @@
       <c r="G40">
         <v>0.13</v>
       </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
       <c r="J40">
         <v>0.71</v>
       </c>
@@ -1827,6 +1881,9 @@
       <c r="G41">
         <v>0.15</v>
       </c>
+      <c r="H41">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J41">
         <v>0.71</v>
       </c>
@@ -1849,6 +1906,9 @@
       </c>
       <c r="G42">
         <v>0.57999999999999996</v>
+      </c>
+      <c r="H42">
+        <v>0.73</v>
       </c>
       <c r="J42">
         <v>0.62</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77641F5-E457-5A4A-912A-3F1702BB228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210CC87E-FE00-F44E-9408-CE0C5BD42B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="760" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1916,7 +1916,6 @@
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="3"/>
-      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="3"/>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210CC87E-FE00-F44E-9408-CE0C5BD42B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF6DD4-C86C-AB45-A052-4405F2C62FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="760" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="7200" yWindow="1140" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1150,6 +1150,9 @@
       <c r="E13">
         <v>0.96</v>
       </c>
+      <c r="F13">
+        <v>0.97</v>
+      </c>
       <c r="G13">
         <v>0.25</v>
       </c>
@@ -1176,6 +1179,9 @@
       <c r="E14">
         <v>0.85</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -1202,6 +1208,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>0.05</v>
       </c>
@@ -1228,6 +1237,9 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>0.94</v>
+      </c>
       <c r="G16">
         <v>0.4</v>
       </c>
@@ -1254,6 +1266,9 @@
       <c r="E17">
         <v>0.91</v>
       </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
       <c r="G17">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1280,6 +1295,9 @@
       <c r="E18">
         <v>0.85</v>
       </c>
+      <c r="F18">
+        <v>0.88</v>
+      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -1306,6 +1324,9 @@
       <c r="E19">
         <v>0.91</v>
       </c>
+      <c r="F19">
+        <v>0.97</v>
+      </c>
       <c r="G19">
         <v>0.16</v>
       </c>
@@ -1332,6 +1353,9 @@
       <c r="E20">
         <v>0.96</v>
       </c>
+      <c r="F20">
+        <v>0.94</v>
+      </c>
       <c r="G20">
         <v>0.38</v>
       </c>
@@ -1358,6 +1382,9 @@
       <c r="E21">
         <v>0.75</v>
       </c>
+      <c r="F21">
+        <v>0.97</v>
+      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -1384,6 +1411,9 @@
       <c r="E22">
         <v>0.89</v>
       </c>
+      <c r="F22">
+        <v>0.97</v>
+      </c>
       <c r="G22">
         <v>0.25</v>
       </c>
@@ -1410,6 +1440,9 @@
       <c r="E23">
         <v>0.96</v>
       </c>
+      <c r="F23">
+        <v>0.91</v>
+      </c>
       <c r="G23">
         <v>0.82</v>
       </c>
@@ -1436,6 +1469,9 @@
       <c r="E24">
         <v>0.85</v>
       </c>
+      <c r="F24">
+        <v>0.84</v>
+      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -1462,6 +1498,9 @@
       <c r="E25">
         <v>0</v>
       </c>
+      <c r="F25">
+        <v>0.84</v>
+      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -1488,6 +1527,9 @@
       <c r="E26">
         <v>0.96</v>
       </c>
+      <c r="F26">
+        <v>0.84</v>
+      </c>
       <c r="G26">
         <v>0.71</v>
       </c>
@@ -1514,6 +1556,9 @@
       <c r="E27">
         <v>0.85</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>0.2</v>
       </c>
@@ -1540,6 +1585,9 @@
       <c r="E28">
         <v>0.96</v>
       </c>
+      <c r="F28">
+        <v>0.88</v>
+      </c>
       <c r="G28">
         <v>0.45</v>
       </c>
@@ -1566,6 +1614,9 @@
       <c r="E29">
         <v>0.96</v>
       </c>
+      <c r="F29">
+        <v>0.91</v>
+      </c>
       <c r="G29">
         <v>0.22</v>
       </c>
@@ -1592,6 +1643,9 @@
       <c r="E30">
         <v>0.72</v>
       </c>
+      <c r="F30">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="G30">
         <v>0.51</v>
       </c>
@@ -1618,6 +1672,9 @@
       <c r="E31">
         <v>0.92</v>
       </c>
+      <c r="F31">
+        <v>0.84</v>
+      </c>
       <c r="G31">
         <v>0.36</v>
       </c>
@@ -1644,6 +1701,9 @@
       <c r="E32">
         <v>0.89</v>
       </c>
+      <c r="F32">
+        <v>0.81</v>
+      </c>
       <c r="G32">
         <v>0.09</v>
       </c>
@@ -1669,6 +1729,9 @@
       </c>
       <c r="E33">
         <v>0.87</v>
+      </c>
+      <c r="F33">
+        <v>0.81</v>
       </c>
       <c r="G33">
         <v>0.22</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF6DD4-C86C-AB45-A052-4405F2C62FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00539AB2-2917-3C48-83B7-6FD1E557A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1140" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="380" yWindow="1160" windowWidth="34520" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,6 @@
     <t>Chikuni</t>
   </si>
   <si>
-    <t>H23001f</t>
-  </si>
-  <si>
     <t>Gwaindepi</t>
   </si>
   <si>
@@ -305,15 +302,9 @@
     <t xml:space="preserve">Nzondo </t>
   </si>
   <si>
-    <t>H25088E</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
-    <t>H250889F</t>
-  </si>
-  <si>
     <t>Ndebele</t>
   </si>
   <si>
@@ -333,6 +324,15 @@
   </si>
   <si>
     <t>H250890W</t>
+  </si>
+  <si>
+    <t>H231001f</t>
+  </si>
+  <si>
+    <t>H250888E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -873,13 +873,16 @@
       <c r="J2">
         <v>0.96</v>
       </c>
+      <c r="K2">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -898,6 +901,9 @@
       </c>
       <c r="J3">
         <v>0.7</v>
+      </c>
+      <c r="K3">
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -925,6 +931,9 @@
       <c r="J4">
         <v>0.79</v>
       </c>
+      <c r="K4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -951,6 +960,9 @@
       <c r="J5">
         <v>0.7</v>
       </c>
+      <c r="K5">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -977,13 +989,16 @@
       <c r="J6">
         <v>0.28000000000000003</v>
       </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -1003,13 +1018,16 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -1029,16 +1047,19 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
       </c>
       <c r="D9" s="5">
         <v>0.81</v>
@@ -1055,16 +1076,19 @@
       <c r="J9">
         <v>0.84</v>
       </c>
+      <c r="K9">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5">
         <v>0.78</v>
@@ -1081,16 +1105,19 @@
       <c r="J10">
         <v>0.87</v>
       </c>
+      <c r="K10">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -1107,16 +1134,19 @@
       <c r="J11">
         <v>0.87</v>
       </c>
+      <c r="K11">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="5">
         <v>0.77</v>
@@ -1132,6 +1162,9 @@
       </c>
       <c r="J12">
         <v>0.89</v>
+      </c>
+      <c r="K12">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1368,10 +1401,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1789,7 +1822,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H35">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="J35">
         <v>0.84</v>
@@ -1815,7 +1848,7 @@
         <v>0.15</v>
       </c>
       <c r="H36">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="J36">
         <v>0.84</v>
@@ -1867,7 +1900,7 @@
         <v>0.13</v>
       </c>
       <c r="H38">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="J38">
         <v>0.71</v>
@@ -1893,7 +1926,7 @@
         <v>0.16</v>
       </c>
       <c r="H39">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="J39">
         <v>0.78</v>
@@ -1919,7 +1952,7 @@
         <v>0.13</v>
       </c>
       <c r="H40">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="J40">
         <v>0.71</v>
@@ -1945,7 +1978,7 @@
         <v>0.15</v>
       </c>
       <c r="H41">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="J41">
         <v>0.71</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00539AB2-2917-3C48-83B7-6FD1E557A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265AD64-5AC1-8247-B9F4-F67F3B6E1204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="1160" windowWidth="34520" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1747,7 +1747,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>54</v>
       </c>
@@ -1801,8 +1801,11 @@
       <c r="J34">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>57</v>
       </c>
@@ -1827,8 +1830,11 @@
       <c r="J35">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
         <v>59</v>
       </c>
@@ -1853,8 +1859,11 @@
       <c r="J36">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
         <v>61</v>
       </c>
@@ -1879,8 +1888,11 @@
       <c r="J37">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
         <v>63</v>
       </c>
@@ -1905,8 +1917,11 @@
       <c r="J38">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
@@ -1931,8 +1946,11 @@
       <c r="J39">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
         <v>67</v>
       </c>
@@ -1957,8 +1975,11 @@
       <c r="J40">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
         <v>69</v>
       </c>
@@ -1983,8 +2004,11 @@
       <c r="J41">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
         <v>71</v>
       </c>
@@ -2009,27 +2033,30 @@
       <c r="J42">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="B44" s="3"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="B45" s="2"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="B46" s="3"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="B47" s="2"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="B48" s="2"/>
       <c r="D48" s="5"/>
     </row>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265AD64-5AC1-8247-B9F4-F67F3B6E1204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A47AE-7B81-EF44-B250-71387AE9A75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="1160" windowWidth="34520" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>Surname</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mariga</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34:K42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1195,6 +1198,9 @@
       <c r="J13">
         <v>0.84</v>
       </c>
+      <c r="K13">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
@@ -1224,6 +1230,9 @@
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
@@ -1253,6 +1262,9 @@
       <c r="J15">
         <v>0.4</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -1282,8 +1294,11 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -1311,8 +1326,11 @@
       <c r="J17">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1340,8 +1358,11 @@
       <c r="J18">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
@@ -1369,8 +1390,11 @@
       <c r="J19">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1398,8 +1422,11 @@
       <c r="J20">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1427,109 +1454,116 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6" t="s">
+      <c r="K21">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="E22">
-        <v>0.89</v>
-      </c>
-      <c r="F22">
-        <v>0.97</v>
-      </c>
-      <c r="G22">
-        <v>0.25</v>
-      </c>
-      <c r="H22">
-        <v>0.37</v>
-      </c>
-      <c r="J22">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="E23">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F23">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="G23">
-        <v>0.82</v>
+        <v>0.25</v>
       </c>
       <c r="H23">
+        <v>0.37</v>
+      </c>
+      <c r="J23">
+        <v>0.51</v>
+      </c>
+      <c r="K23">
         <v>0.93</v>
       </c>
-      <c r="J23">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E24">
+        <v>0.96</v>
+      </c>
+      <c r="F24">
+        <v>0.91</v>
+      </c>
+      <c r="G24">
+        <v>0.82</v>
+      </c>
+      <c r="H24">
+        <v>0.93</v>
+      </c>
+      <c r="J24">
+        <v>0.89</v>
+      </c>
+      <c r="K24">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6">
         <v>0.84</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.85</v>
-      </c>
-      <c r="F24">
-        <v>0.84</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0.22</v>
-      </c>
-      <c r="J24">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
       <c r="F25">
         <v>0.84</v>
@@ -1538,507 +1572,563 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="J25">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="6" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="K25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="6">
-        <v>0.73</v>
+      <c r="D26" s="5">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0.84</v>
       </c>
       <c r="G26">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.83</v>
+        <v>0.26</v>
       </c>
       <c r="J26">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>0.73</v>
+      </c>
+      <c r="K26">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="E27">
+        <v>0.96</v>
+      </c>
+      <c r="F27">
+        <v>0.84</v>
+      </c>
+      <c r="G27">
+        <v>0.71</v>
+      </c>
+      <c r="H27">
+        <v>0.83</v>
+      </c>
+      <c r="J27">
         <v>0.91</v>
       </c>
-      <c r="E27">
-        <v>0.85</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.2</v>
-      </c>
-      <c r="H27">
-        <v>0.15</v>
-      </c>
-      <c r="J27">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="6">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E28">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F28">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="H28">
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="J28">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.76</v>
+      </c>
+      <c r="K28">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="6">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E29">
         <v>0.96</v>
       </c>
       <c r="F29">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G29">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="H29">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="J29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.82</v>
+      </c>
+      <c r="K29">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="6">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
       <c r="E30">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="F30">
-        <v>0.56000000000000005</v>
+        <v>0.91</v>
       </c>
       <c r="G30">
-        <v>0.51</v>
+        <v>0.22</v>
       </c>
       <c r="H30">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="J30">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>0.89</v>
+      </c>
+      <c r="K30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="6">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="E31">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="F31">
-        <v>0.84</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G31">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="J31">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>0.62</v>
+      </c>
+      <c r="K31">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="E32">
+        <v>0.92</v>
+      </c>
+      <c r="F32">
+        <v>0.84</v>
+      </c>
+      <c r="G32">
+        <v>0.36</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.84</v>
+      </c>
+      <c r="K32">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="6">
         <v>0.87</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>0.89</v>
-      </c>
-      <c r="F32">
-        <v>0.81</v>
-      </c>
-      <c r="G32">
-        <v>0.09</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0.87</v>
       </c>
       <c r="F33">
         <v>0.81</v>
       </c>
       <c r="G33">
+        <v>0.09</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.42</v>
+      </c>
+      <c r="K33">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.87</v>
+      </c>
+      <c r="F34">
+        <v>0.81</v>
+      </c>
+      <c r="G34">
         <v>0.22</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>0.17</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="E34">
-        <v>0.76</v>
-      </c>
-      <c r="G34">
-        <v>0.16</v>
-      </c>
-      <c r="H34">
-        <v>0.7</v>
-      </c>
-      <c r="J34">
-        <v>0.73</v>
-      </c>
       <c r="K34">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="E35">
+        <v>0.76</v>
+      </c>
+      <c r="G35">
+        <v>0.16</v>
+      </c>
+      <c r="H35">
         <v>0.7</v>
       </c>
-      <c r="E35">
-        <v>0.83</v>
-      </c>
-      <c r="G35">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.73</v>
       </c>
-      <c r="J35">
-        <v>0.84</v>
-      </c>
       <c r="K35">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="8">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E36">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G36">
-        <v>0.15</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H36">
-        <v>0.48</v>
+        <v>0.73</v>
       </c>
       <c r="J36">
         <v>0.84</v>
       </c>
       <c r="K36">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E37">
         <v>0.89</v>
-      </c>
-      <c r="E37">
-        <v>0.83</v>
       </c>
       <c r="G37">
         <v>0.15</v>
       </c>
       <c r="H37">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="J37">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="K37">
-        <v>0.46</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="8">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="E38">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G38">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H38">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="J38">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="K38">
-        <v>0.87</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="8">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="E39">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="G39">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="H39">
-        <v>0.32</v>
+        <v>0.77</v>
       </c>
       <c r="J39">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="K39">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="8">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E40">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G40">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="H40">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="J40">
+        <v>0.78</v>
+      </c>
+      <c r="K40">
         <v>0.71</v>
-      </c>
-      <c r="K40">
-        <v>0.76</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="8">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="G41">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H41">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
       <c r="J41">
         <v>0.71</v>
       </c>
       <c r="K41">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="E42">
+        <v>0.78</v>
+      </c>
+      <c r="G42">
+        <v>0.15</v>
+      </c>
+      <c r="H42">
+        <v>0.59</v>
+      </c>
+      <c r="J42">
+        <v>0.71</v>
+      </c>
+      <c r="K42">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="8">
         <v>0.53</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>0.8</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>0.73</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <v>0.62</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="3"/>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A47AE-7B81-EF44-B250-71387AE9A75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9B0D1-37E0-864B-AF6C-91A170D85012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="1160" windowWidth="34520" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -399,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -407,11 +407,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,6 +436,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +823,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1805,7 +1823,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:13">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1869,7 +1887,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
         <v>54</v>
       </c>
@@ -1891,14 +1909,21 @@
       <c r="H35">
         <v>0.7</v>
       </c>
+      <c r="I35">
+        <v>0.81</v>
+      </c>
       <c r="J35">
         <v>0.73</v>
       </c>
       <c r="K35">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35" s="9">
+        <f>(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.1+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.25+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <v>0.74550000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
         <v>57</v>
       </c>
@@ -1920,14 +1945,21 @@
       <c r="H36">
         <v>0.73</v>
       </c>
+      <c r="I36">
+        <v>0.79</v>
+      </c>
       <c r="J36">
         <v>0.84</v>
       </c>
       <c r="K36">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36" s="9">
+        <f t="shared" ref="M36:M43" si="0">(((LARGE(D36:F36,1)+LARGE(D36:F36,2))*0.1+(LARGE(G36:I36,1)+LARGE(G36:I36,2))*0.25+(LARGE(J36:L36,1)+LARGE(J36:L36,2))*0.15))</f>
+        <v>0.8015000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
         <v>59</v>
       </c>
@@ -1949,14 +1981,21 @@
       <c r="H37">
         <v>0.48</v>
       </c>
+      <c r="I37">
+        <v>0.66</v>
+      </c>
       <c r="J37">
         <v>0.84</v>
       </c>
       <c r="K37">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70100000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
         <v>61</v>
       </c>
@@ -1978,14 +2017,21 @@
       <c r="H38">
         <v>0.36</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38">
         <v>0.89</v>
       </c>
       <c r="K38">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
         <v>63</v>
       </c>
@@ -2007,14 +2053,21 @@
       <c r="H39">
         <v>0.77</v>
       </c>
+      <c r="I39">
+        <v>0.47</v>
+      </c>
       <c r="J39">
         <v>0.71</v>
       </c>
       <c r="K39">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>65</v>
       </c>
@@ -2036,14 +2089,21 @@
       <c r="H40">
         <v>0.32</v>
       </c>
+      <c r="I40">
+        <v>0.49</v>
+      </c>
       <c r="J40">
         <v>0.78</v>
       </c>
       <c r="K40">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58700000000000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
@@ -2065,14 +2125,21 @@
       <c r="H41">
         <v>0.27</v>
       </c>
+      <c r="I41">
+        <v>0.53</v>
+      </c>
       <c r="J41">
         <v>0.71</v>
       </c>
       <c r="K41">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
         <v>69</v>
       </c>
@@ -2094,14 +2161,21 @@
       <c r="H42">
         <v>0.59</v>
       </c>
+      <c r="I42">
+        <v>0.72</v>
+      </c>
       <c r="J42">
         <v>0.71</v>
       </c>
       <c r="K42">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
@@ -2123,30 +2197,37 @@
       <c r="H43">
         <v>0.73</v>
       </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
       <c r="J43">
         <v>0.62</v>
       </c>
       <c r="K43">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43" s="9">
+        <f t="shared" si="0"/>
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="B44" s="3"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:13">
       <c r="B45" s="2"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:13">
       <c r="B46" s="3"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:13">
       <c r="B47" s="2"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:13">
       <c r="B48" s="2"/>
       <c r="D48" s="5"/>
     </row>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9B0D1-37E0-864B-AF6C-91A170D85012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E5008-9754-CD40-89A8-71AF5DF34B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1160" windowWidth="34520" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,10 +332,10 @@
     <t>H250888E</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Mariga</t>
+  </si>
+  <si>
+    <t>H250889F</t>
   </si>
 </sst>
 </file>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1100,6 +1100,10 @@
       <c r="K9">
         <v>0.77</v>
       </c>
+      <c r="M9" s="9">
+        <f>(((LARGE(D9:F9,1)+LARGE(D9:F9,2))*0.1+(LARGE(G9:I9,1)+LARGE(G9:I9,2))*0.25+(LARGE(J9:L9,1)+LARGE(J9:L9,2))*0.15))</f>
+        <v>0.8145</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -1129,6 +1133,10 @@
       <c r="K10">
         <v>0.9</v>
       </c>
+      <c r="M10" s="9">
+        <f>(((LARGE(D10:F10,1)+LARGE(D10:F10,2))*0.1+(LARGE(G10:I10,1)+LARGE(G10:I10,2))*0.25+(LARGE(J10:L10,1)+LARGE(J10:L10,2))*0.15))</f>
+        <v>0.84400000000000008</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -1158,13 +1166,14 @@
       <c r="K11">
         <v>0.87</v>
       </c>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -1186,6 +1195,10 @@
       </c>
       <c r="K12">
         <v>0.75</v>
+      </c>
+      <c r="M12" s="9">
+        <f>(((LARGE(D12:F12,1)+LARGE(D12:F12,2))*0.1+(LARGE(G12:I12,1)+LARGE(G12:I12,2))*0.25+(LARGE(J12:L12,1)+LARGE(J12:L12,2))*0.15))</f>
+        <v>0.81600000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1213,12 +1226,16 @@
       <c r="H13">
         <v>0.39</v>
       </c>
+      <c r="I13">
+        <v>0.39</v>
+      </c>
       <c r="J13">
         <v>0.84</v>
       </c>
       <c r="K13">
         <v>0.87</v>
       </c>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
@@ -1245,11 +1262,21 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
         <v>0.28999999999999998</v>
+      </c>
+      <c r="L14">
+        <v>0.63</v>
+      </c>
+      <c r="M14" s="9">
+        <f>(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.1+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.25+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
+        <v>0.43400000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1277,12 +1304,16 @@
       <c r="H15">
         <v>0.46</v>
       </c>
+      <c r="I15">
+        <v>0.45</v>
+      </c>
       <c r="J15">
         <v>0.4</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -1309,14 +1340,18 @@
       <c r="H16">
         <v>0.72</v>
       </c>
+      <c r="I16">
+        <v>0.79</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -1341,14 +1376,18 @@
       <c r="H17">
         <v>0.13</v>
       </c>
+      <c r="I17">
+        <v>0.17</v>
+      </c>
       <c r="J17">
         <v>0.11</v>
       </c>
       <c r="K17">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1379,8 +1418,9 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
@@ -1405,14 +1445,18 @@
       <c r="H19">
         <v>0.26</v>
       </c>
+      <c r="I19">
+        <v>0.36</v>
+      </c>
       <c r="J19">
         <v>0.78</v>
       </c>
       <c r="K19">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1437,14 +1481,24 @@
       <c r="H20">
         <v>0.48</v>
       </c>
+      <c r="I20">
+        <v>0.85</v>
+      </c>
       <c r="J20">
         <v>0.91</v>
       </c>
       <c r="K20">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0.76</v>
+      </c>
+      <c r="M20" s="9">
+        <f>(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.1+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.25+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
+        <v>0.79549999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1469,16 +1523,26 @@
       <c r="H21">
         <v>0.35</v>
       </c>
+      <c r="I21">
+        <v>0.36</v>
+      </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0.84</v>
+      </c>
+      <c r="M21" s="9">
+        <f>(((LARGE(D21:F21,1)+LARGE(D21:F21,2))*0.1+(LARGE(G21:I21,1)+LARGE(G21:I21,2))*0.25+(LARGE(J21:L21,1)+LARGE(J21:L21,2))*0.15))</f>
+        <v>0.60600000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -1496,14 +1560,24 @@
       <c r="H22">
         <v>0</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <f>(((LARGE(D22:F22,1)+LARGE(D22:F22,2))*0.1+(LARGE(G22:I22,1)+LARGE(G22:I22,2))*0.25+(LARGE(J22:L22,1)+LARGE(J22:L22,2))*0.15))</f>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1528,14 +1602,18 @@
       <c r="H23">
         <v>0.37</v>
       </c>
+      <c r="I23">
+        <v>0.31</v>
+      </c>
       <c r="J23">
         <v>0.51</v>
       </c>
       <c r="K23">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -1560,14 +1638,18 @@
       <c r="H24">
         <v>0.93</v>
       </c>
+      <c r="I24">
+        <v>0.69</v>
+      </c>
       <c r="J24">
         <v>0.89</v>
       </c>
       <c r="K24">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -1592,14 +1674,18 @@
       <c r="H25">
         <v>0.22</v>
       </c>
+      <c r="I25">
+        <v>0.44</v>
+      </c>
       <c r="J25">
         <v>0.4</v>
       </c>
       <c r="K25">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1624,14 +1710,18 @@
       <c r="H26">
         <v>0.26</v>
       </c>
+      <c r="I26">
+        <v>0.36</v>
+      </c>
       <c r="J26">
         <v>0.73</v>
       </c>
       <c r="K26">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
@@ -1656,14 +1746,24 @@
       <c r="H27">
         <v>0.83</v>
       </c>
+      <c r="I27">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J27">
         <v>0.91</v>
       </c>
       <c r="K27">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0.73</v>
+      </c>
+      <c r="M27" s="9">
+        <f>(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.1+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.25+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
+        <v>0.81850000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -1694,8 +1794,9 @@
       <c r="K28">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
@@ -1720,14 +1821,24 @@
       <c r="H29">
         <v>0.48</v>
       </c>
+      <c r="I29">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J29">
         <v>0.82</v>
       </c>
       <c r="K29">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>0.51</v>
+      </c>
+      <c r="M29" s="9">
+        <f>(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.1+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.25+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
@@ -1752,14 +1863,18 @@
       <c r="H30">
         <v>0.63</v>
       </c>
+      <c r="I30">
+        <v>0.39</v>
+      </c>
       <c r="J30">
         <v>0.89</v>
       </c>
       <c r="K30">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1784,14 +1899,18 @@
       <c r="H31">
         <v>0.59</v>
       </c>
+      <c r="I31">
+        <v>0.41</v>
+      </c>
       <c r="J31">
         <v>0.62</v>
       </c>
       <c r="K31">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
@@ -1822,6 +1941,7 @@
       <c r="K32">
         <v>0.78</v>
       </c>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6" t="s">
@@ -1848,12 +1968,16 @@
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33">
+        <v>0.21</v>
+      </c>
       <c r="J33">
         <v>0.42</v>
       </c>
       <c r="K33">
         <v>0.71</v>
       </c>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
@@ -1880,12 +2004,16 @@
       <c r="H34">
         <v>0.17</v>
       </c>
+      <c r="I34">
+        <v>0.37</v>
+      </c>
       <c r="J34">
         <v>0.44</v>
       </c>
       <c r="K34">
         <v>0.87</v>
       </c>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E5008-9754-CD40-89A8-71AF5DF34B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC9BDF-D585-2744-A6DA-36ADE4EA1487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1349,7 +1349,13 @@
       <c r="K16">
         <v>0.93</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="L16">
+        <v>0.93</v>
+      </c>
+      <c r="M16" s="9">
+        <f>(((LARGE(D16:F16,1)+LARGE(D16:F16,2))*0.1+(LARGE(G16:I16,1)+LARGE(G16:I16,2))*0.25+(LARGE(J16:L16,1)+LARGE(J16:L16,2))*0.15))</f>
+        <v>0.75050000000000006</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
@@ -1385,7 +1391,13 @@
       <c r="K17">
         <v>0.25</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="L17">
+        <v>0.72</v>
+      </c>
+      <c r="M17" s="9">
+        <f>(((LARGE(D17:F17,1)+LARGE(D17:F17,2))*0.1+(LARGE(G17:I17,1)+LARGE(G17:I17,2))*0.25+(LARGE(J17:L17,1)+LARGE(J17:L17,2))*0.15))</f>
+        <v>0.38850000000000007</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
@@ -1412,13 +1424,22 @@
       <c r="H18">
         <v>0.02</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>0.89</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="L18">
+        <v>0.7</v>
+      </c>
+      <c r="M18" s="9">
+        <f>(((LARGE(D18:F18,1)+LARGE(D18:F18,2))*0.1+(LARGE(G18:I18,1)+LARGE(G18:I18,2))*0.25+(LARGE(J18:L18,1)+LARGE(J18:L18,2))*0.15))</f>
+        <v>0.41649999999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6" t="s">
@@ -1787,6 +1808,9 @@
       </c>
       <c r="H28">
         <v>0.15</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0.76</v>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC9BDF-D585-2744-A6DA-36ADE4EA1487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EB8F83-5038-7F40-9FB7-3C83DAD8ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EB8F83-5038-7F40-9FB7-3C83DAD8ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311473CB-6398-094C-B295-7CFECB07F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1227,7 +1227,7 @@
         <v>0.39</v>
       </c>
       <c r="I13">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="J13">
         <v>0.84</v>
@@ -1235,7 +1235,13 @@
       <c r="K13">
         <v>0.87</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="L13">
+        <v>0.69</v>
+      </c>
+      <c r="M13" s="9">
+        <f>(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.1+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.25+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
+        <v>0.65450000000000008</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
@@ -1313,7 +1319,13 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <f>(((LARGE(D15:F15,1)+LARGE(D15:F15,2))*0.1+(LARGE(G15:I15,1)+LARGE(G15:I15,2))*0.25+(LARGE(J15:L15,1)+LARGE(J15:L15,2))*0.15))</f>
+        <v>0.46850000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -1475,7 +1487,13 @@
       <c r="K19">
         <v>0.93</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="L19">
+        <v>0.79</v>
+      </c>
+      <c r="M19" s="9">
+        <f>(((LARGE(D19:F19,1)+LARGE(D19:F19,2))*0.1+(LARGE(G19:I19,1)+LARGE(G19:I19,2))*0.25+(LARGE(J19:L19,1)+LARGE(J19:L19,2))*0.15))</f>
+        <v>0.60099999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6" t="s">
@@ -1632,7 +1650,13 @@
       <c r="K23">
         <v>0.93</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="L23">
+        <v>0.74</v>
+      </c>
+      <c r="M23" s="9">
+        <f>(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.1+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.25+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
+        <v>0.60650000000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
@@ -1668,7 +1692,13 @@
       <c r="K24">
         <v>0.93</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="L24">
+        <v>0.9</v>
+      </c>
+      <c r="M24" s="9">
+        <f>(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.1+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.25+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
+        <v>0.89900000000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="s">
@@ -1704,7 +1734,13 @@
       <c r="K25">
         <v>0.83</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="L25">
+        <v>0.59</v>
+      </c>
+      <c r="M25" s="9">
+        <f>(((LARGE(D25:F25,1)+LARGE(D25:F25,2))*0.1+(LARGE(G25:I25,1)+LARGE(G25:I25,2))*0.25+(LARGE(J25:L25,1)+LARGE(J25:L25,2))*0.15))</f>
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
@@ -1720,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="F26">
         <v>0.84</v>
@@ -1740,7 +1776,13 @@
       <c r="K26">
         <v>0.81</v>
       </c>
-      <c r="M26" s="9"/>
+      <c r="L26">
+        <v>0.69</v>
+      </c>
+      <c r="M26" s="9">
+        <f>(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.1+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.25+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <v>0.54899999999999993</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6" t="s">
@@ -1818,7 +1860,13 @@
       <c r="K28">
         <v>0.71</v>
       </c>
-      <c r="M28" s="9"/>
+      <c r="L28">
+        <v>0.67</v>
+      </c>
+      <c r="M28" s="9">
+        <f>(((LARGE(D28:F28,1)+LARGE(D28:F28,2))*0.1+(LARGE(G28:I28,1)+LARGE(G28:I28,2))*0.25+(LARGE(J28:L28,1)+LARGE(J28:L28,2))*0.15))</f>
+        <v>0.499</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6" t="s">
@@ -1896,7 +1944,13 @@
       <c r="K30">
         <v>0.86</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="L30">
+        <v>0.7</v>
+      </c>
+      <c r="M30" s="9">
+        <f>(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.1+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.25+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
+        <v>0.70450000000000013</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6" t="s">
@@ -1932,7 +1986,13 @@
       <c r="K31">
         <v>0.81</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="L31">
+        <v>0.66</v>
+      </c>
+      <c r="M31" s="9">
+        <f>(((LARGE(D31:F31,1)+LARGE(D31:F31,2))*0.1+(LARGE(G31:I31,1)+LARGE(G31:I31,2))*0.25+(LARGE(J31:L31,1)+LARGE(J31:L31,2))*0.15))</f>
+        <v>0.62950000000000006</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6" t="s">
@@ -1959,13 +2019,22 @@
       <c r="H32">
         <v>0</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="J32">
         <v>0.84</v>
       </c>
       <c r="K32">
         <v>0.78</v>
       </c>
-      <c r="M32" s="9"/>
+      <c r="L32">
+        <v>0.69</v>
+      </c>
+      <c r="M32" s="9">
+        <f>(((LARGE(D32:F32,1)+LARGE(D32:F32,2))*0.1+(LARGE(G32:I32,1)+LARGE(G32:I32,2))*0.25+(LARGE(J32:L32,1)+LARGE(J32:L32,2))*0.15))</f>
+        <v>0.50900000000000001</v>
+      </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6" t="s">
@@ -2001,7 +2070,12 @@
       <c r="K33">
         <v>0.71</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="L33">
+        <v>0.71</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
@@ -2037,7 +2111,13 @@
       <c r="K34">
         <v>0.87</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="L34">
+        <v>0.73</v>
+      </c>
+      <c r="M34" s="9">
+        <f>(((LARGE(D34:F34,1)+LARGE(D34:F34,2))*0.1+(LARGE(G34:I34,1)+LARGE(G34:I34,2))*0.25+(LARGE(J34:L34,1)+LARGE(J34:L34,2))*0.15))</f>
+        <v>0.55549999999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311473CB-6398-094C-B295-7CFECB07F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C655E4-E277-6843-B5AA-249E448B9056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -891,11 +891,21 @@
       <c r="H2">
         <v>0.31</v>
       </c>
+      <c r="I2">
+        <v>0.59</v>
+      </c>
       <c r="J2">
         <v>0.96</v>
       </c>
       <c r="K2">
         <v>0.57999999999999996</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" ref="M2:M8" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.1+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.25+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -920,11 +930,21 @@
       <c r="H3">
         <v>0.33</v>
       </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
       <c r="J3">
         <v>0.7</v>
       </c>
       <c r="K3">
         <v>0.78</v>
+      </c>
+      <c r="L3">
+        <v>0.68</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -949,11 +969,21 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>0.79</v>
       </c>
       <c r="K4">
         <v>0.8</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.54299999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -978,11 +1008,21 @@
       <c r="H5">
         <v>0.38</v>
       </c>
+      <c r="I5">
+        <v>0.59</v>
+      </c>
       <c r="J5">
         <v>0.7</v>
       </c>
       <c r="K5">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.97</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1007,11 +1047,21 @@
       <c r="H6">
         <v>0.33</v>
       </c>
+      <c r="I6">
+        <v>0.52</v>
+      </c>
       <c r="J6">
         <v>0.28000000000000003</v>
       </c>
       <c r="K6">
         <v>0.8</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53750000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1036,11 +1086,21 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
         <v>0.57999999999999996</v>
+      </c>
+      <c r="L7">
+        <v>0.85</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42800000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1065,11 +1125,21 @@
       <c r="H8">
         <v>0.21</v>
       </c>
+      <c r="I8">
+        <v>0.74</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60949999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2187,7 +2257,7 @@
         <v>0.95</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" ref="M36:M43" si="0">(((LARGE(D36:F36,1)+LARGE(D36:F36,2))*0.1+(LARGE(G36:I36,1)+LARGE(G36:I36,2))*0.25+(LARGE(J36:L36,1)+LARGE(J36:L36,2))*0.15))</f>
+        <f t="shared" ref="M36:M43" si="1">(((LARGE(D36:F36,1)+LARGE(D36:F36,2))*0.1+(LARGE(G36:I36,1)+LARGE(G36:I36,2))*0.25+(LARGE(J36:L36,1)+LARGE(J36:L36,2))*0.15))</f>
         <v>0.8015000000000001</v>
       </c>
     </row>
@@ -2223,7 +2293,7 @@
         <v>0.84</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70100000000000007</v>
       </c>
     </row>
@@ -2259,7 +2329,7 @@
         <v>0.46</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.502</v>
       </c>
     </row>
@@ -2295,7 +2365,7 @@
         <v>0.87</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -2331,7 +2401,7 @@
         <v>0.71</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58700000000000008</v>
       </c>
     </row>
@@ -2367,7 +2437,7 @@
         <v>0.76</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5675</v>
       </c>
     </row>
@@ -2403,7 +2473,7 @@
         <v>0.78</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70700000000000007</v>
       </c>
     </row>
@@ -2439,7 +2509,7 @@
         <v>0.59</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64200000000000002</v>
       </c>
     </row>

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C655E4-E277-6843-B5AA-249E448B9056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18409E6D-1B98-1342-B048-3E3651BB2EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1224,6 +1224,9 @@
       <c r="E11">
         <v>0.89</v>
       </c>
+      <c r="F11">
+        <v>0.54</v>
+      </c>
       <c r="G11">
         <v>0.78</v>
       </c>
@@ -1236,7 +1239,10 @@
       <c r="K11">
         <v>0.87</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9">
+        <f>(((LARGE(D11:F11,1)+LARGE(D11:F11,2))*0.1+(LARGE(G11:I11,1)+LARGE(G11:I11,2))*0.25+(LARGE(J11:L11,1)+LARGE(J11:L11,2))*0.15))</f>
+        <v>0.8165</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18409E6D-1B98-1342-B048-3E3651BB2EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE67373-06A5-1641-8907-1D1B04485F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1225,7 +1225,7 @@
         <v>0.89</v>
       </c>
       <c r="F11">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="G11">
         <v>0.78</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="M11" s="9">
         <f>(((LARGE(D11:F11,1)+LARGE(D11:F11,2))*0.1+(LARGE(G11:I11,1)+LARGE(G11:I11,2))*0.25+(LARGE(J11:L11,1)+LARGE(J11:L11,2))*0.15))</f>
-        <v>0.8165</v>
+        <v>0.83350000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:13">

--- a/cw71012025.xlsx
+++ b/cw71012025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE67373-06A5-1641-8907-1D1B04485F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1168997-0C2E-6949-92EB-211DB94CC20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="30240" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1399,8 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="9">
-        <f>(((LARGE(D15:F15,1)+LARGE(D15:F15,2))*0.1+(LARGE(G15:I15,1)+LARGE(G15:I15,2))*0.25+(LARGE(J15:L15,1)+LARGE(J15:L15,2))*0.15))</f>
-        <v>0.46850000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
